--- a/stored_variables/7/spectrum/solid_angle_of_binwidth_1.5.xlsx
+++ b/stored_variables/7/spectrum/solid_angle_of_binwidth_1.5.xlsx
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.724449766822304e-05</v>
+        <v>3.712939436027128e-05</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.000143579977823158</v>
+        <v>0.0001511649410797924</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0002103252169578212</v>
+        <v>0.0002142547350620386</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0002577462930719995</v>
+        <v>0.0002622862792168248</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0002974621469945545</v>
+        <v>0.0003009201623448575</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.000331775238866092</v>
+        <v>0.0003345770732811699</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0003614456980252522</v>
+        <v>0.000365693738464343</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0003907070148640629</v>
+        <v>0.0003933026082616895</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0004110701426012955</v>
+        <v>0.0004122982872704488</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0004220135800779742</v>
+        <v>0.0004229430494259387</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0004307284722417621</v>
+        <v>0.0004313049634449246</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0004328668322358832</v>
+        <v>0.0004338557210002552</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0004318535386784956</v>
+        <v>0.0004311611436556808</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.000429085665068452</v>
+        <v>0.0004301695288360626</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0004290589819971787</v>
+        <v>0.0004283701106429447</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0004259960308441844</v>
+        <v>0.0004269616952938395</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0004257898378179024</v>
+        <v>0.0004243884255809895</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0004235964348974791</v>
+        <v>0.0004249098145193906</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.000421558343691669</v>
+        <v>0.0004219958203139599</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0004209233351271411</v>
+        <v>0.00042043253969384</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0004198325520264803</v>
+        <v>0.0004185303941987009</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0004177416991098815</v>
+        <v>0.0004191882291468</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0004162187305334733</v>
+        <v>0.0004165027983240031</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.000414586244066109</v>
+        <v>0.0004150274160186876</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0004135721247692677</v>
+        <v>0.0004136165942542475</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0004119007873705694</v>
+        <v>0.0004121541332473248</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0004106512868328002</v>
+        <v>0.0004104302672904898</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0004091317871877401</v>
+        <v>0.0004089602414835077</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0004077721355717483</v>
+        <v>0.0004069640727569857</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0004058908749755649</v>
+        <v>0.0004069410528722478</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0004043030306614177</v>
+        <v>0.0004057338884895137</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0004039810273013777</v>
+        <v>0.0004036474227867997</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0004025287652650374</v>
+        <v>0.0004012202065427563</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0003996027346353715</v>
+        <v>0.000401621594399823</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0004005887595038304</v>
+        <v>0.0003992391933462879</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0003974134062057028</v>
+        <v>0.0003980913090217199</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.000397126018007837</v>
+        <v>0.000397155920276646</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.000394886297444114</v>
+        <v>0.0003952154105835702</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0003945710037171238</v>
+        <v>0.0003936910477186189</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0003918665591929095</v>
+        <v>0.0003933370920499992</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0003922561429439284</v>
+        <v>0.0003908061644516214</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0003898316419880636</v>
+        <v>0.0003905707665788841</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0003880499481583482</v>
+        <v>0.0003893200705281323</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0003877907557267711</v>
+        <v>0.0003871127259839672</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0003867070556944589</v>
+        <v>0.0003857193009745146</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0003847440212464537</v>
+        <v>0.0003843493744930873</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.00038330052270116</v>
+        <v>0.0003848304858071812</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0003822594884705663</v>
+        <v>0.0003827239539180393</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0003808069970069993</v>
+        <v>0.0003810762856714706</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0003798488500144234</v>
+        <v>0.0003799288851333528</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0003784265127200442</v>
+        <v>0.0003786596317478995</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0003775494310898822</v>
+        <v>0.0003773594827202994</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0003762505350092995</v>
+        <v>0.0003757454261892038</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.000375077918006186</v>
+        <v>0.0003738766007888706</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0003737168601458554</v>
+        <v>0.0003743531680799385</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0003721379787108735</v>
+        <v>0.0003729606956663196</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0003701689872208508</v>
+        <v>0.0003715526435155418</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0003710373286177968</v>
+        <v>0.0003697160948123373</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0003692327841864619</v>
+        <v>0.0003684412663502438</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.0003666110173272351</v>
+        <v>0.0003685437764303958</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0003667830611176948</v>
+        <v>0.0003658687636528023</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0003658450148934135</v>
+        <v>0.0003653194362971233</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0003627747445136863</v>
+        <v>0.0003645899657827104</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0003639549913609113</v>
+        <v>0.0003622089910063912</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0003605535799278464</v>
+        <v>0.000362695564468925</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0003618698881899481</v>
+        <v>0.0003597159400636386</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0003583883789638006</v>
+        <v>0.0003604264365589074</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0003594775322551257</v>
+        <v>0.0003580004643782243</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0003566469417748262</v>
+        <v>0.0003560350232933633</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0003549893414943222</v>
+        <v>0.0003576065413157434</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0003565564669036564</v>
+        <v>0.0003545285083226364</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0003533402433095815</v>
+        <v>0.0003529821093721631</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.000351790897809389</v>
+        <v>0.000354127110937734</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0003523605444703541</v>
+        <v>0.0003515670722081562</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0003509417419375935</v>
+        <v>0.0003501412497591871</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.000349207932216188</v>
+        <v>0.0003489957542189061</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0003479452461106398</v>
+        <v>0.0003478535057341935</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0003468222854361219</v>
+        <v>0.0003477156966709478</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0003459067350261673</v>
+        <v>0.0003468149584713322</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0003449863630054608</v>
+        <v>0.000345111183694213</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.000343922519641157</v>
+        <v>0.0003441982141515624</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0003427349514947476</v>
+        <v>0.0003428447029288309</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0003421095556611468</v>
+        <v>0.0003418284082363643</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0003409178943810124</v>
+        <v>0.0003407431135043184</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.000340112737362512</v>
+        <v>0.0003385916961090214</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.0003388841454936261</v>
+        <v>0.00033899992178472</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0003380268300159279</v>
+        <v>0.0003382393439163498</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0003367835354533876</v>
+        <v>0.0003372995445694112</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0003352434394882082</v>
+        <v>0.0003358826956577411</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0003335955796809598</v>
+        <v>0.0003343830372658894</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.000334498880466112</v>
+        <v>0.0003326034921336807</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0003329964460946907</v>
+        <v>0.0003334562148869926</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.0003309716987384019</v>
+        <v>0.0003318723596552198</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.0003304481093041951</v>
+        <v>0.0003289997559256607</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0003302505869387148</v>
+        <v>0.0003308020349385351</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.000327426069910235</v>
+        <v>0.0003290484096434074</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.0003284348004873454</v>
+        <v>0.000326535489405622</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0003269037483670363</v>
+        <v>0.0003278340010866402</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.0003249979347849534</v>
+        <v>0.0003240661341466108</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.0003251956700767346</v>
+        <v>0.0003259774748846789</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.000323000031098615</v>
+        <v>0.0003224036792116422</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.0003233677866348109</v>
+        <v>0.0003242411080857426</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.0003212912315456148</v>
+        <v>0.0003206622229738448</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.0003209595235487299</v>
+        <v>0.000322004491581703</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0003201305460094336</v>
+        <v>0.0003192284398749465</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.0003177711597959558</v>
+        <v>0.0003187889836108903</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.0003191546951091559</v>
+        <v>0.0003186845486725555</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0003167168728783871</v>
+        <v>0.0003163148989326596</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0003152290213969296</v>
+        <v>0.0003158894352448915</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0003160615500977313</v>
+        <v>0.0003161820240361712</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.0003144226368420604</v>
+        <v>0.0003140119502670404</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.0003129263878619813</v>
+        <v>0.0003127894583012576</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0003118457269121709</v>
+        <v>0.0003113618660521588</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.000311679705727223</v>
+        <v>0.0003130788745458721</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.000311296586935308</v>
+        <v>0.0003109891776637419</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.0003099248822263511</v>
+        <v>0.0003095826822002544</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0003085690100300586</v>
+        <v>0.0003084140804493008</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.0003077860008951075</v>
+        <v>0.0003074900892882787</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0003067899987108689</v>
+        <v>0.0003068793413169089</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0003058623765526321</v>
+        <v>0.0003059709434539617</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0003050074304862779</v>
+        <v>0.0003052628037855782</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.0003044649865472094</v>
+        <v>0.0003040823410877469</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0003033574575506304</v>
+        <v>0.0003035843823053269</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.0003029087569785904</v>
+        <v>0.0003027923098995529</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.000301772614309644</v>
+        <v>0.0003018728635378868</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.0003009984935081162</v>
+        <v>0.00030119461954512</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.000300175940471063</v>
+        <v>0.0003002458676153311</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0002992440733865722</v>
+        <v>0.0002993179264434483</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.0002983127231192984</v>
+        <v>0.0002984799666402275</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.0002970263548093735</v>
+        <v>0.000297343274452183</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.0002958432617516053</v>
+        <v>0.0002950998586000918</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.0002965590069820239</v>
+        <v>0.0002964700652802835</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.0002953656287866191</v>
+        <v>0.000295671337884067</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0002942452486786766</v>
+        <v>0.0002944048205248562</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0002915360728294454</v>
+        <v>0.000292766042145957</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.0002935551900017293</v>
+        <v>0.0002921009803095874</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0002923242008510059</v>
+        <v>0.0002924467731681209</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.0002901901087858654</v>
+        <v>0.000290663341922699</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.0002896812718583437</v>
+        <v>0.0002891210044458304</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.0002902299595128041</v>
+        <v>0.0002903222940134775</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.0002867715432031691</v>
+        <v>0.0002879715557370514</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.0002884111266383813</v>
+        <v>0.0002872841119684093</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.0002873818887727282</v>
+        <v>0.0002874992481716082</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.0002851977706720993</v>
+        <v>0.0002848760551745218</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0002861266697612334</v>
+        <v>0.0002862620467430138</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.0002830018909011029</v>
+        <v>0.0002830475635496757</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0002851006311511818</v>
+        <v>0.000285010622656169</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.0002813703440076751</v>
+        <v>0.0002813150369073294</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.0002835482805994542</v>
+        <v>0.0002836233657467394</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.0002802082074062458</v>
+        <v>0.0002799269595203084</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.0002813995750182178</v>
+        <v>0.0002819719605821425</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0002793169923439855</v>
+        <v>0.0002790078799303581</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.0002786318530630498</v>
+        <v>0.0002793805626713422</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.0002789327818021889</v>
+        <v>0.0002784092089724214</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0002765577168143861</v>
+        <v>0.0002762708689682279</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.00027747576276654</v>
+        <v>0.0002780084806874126</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.0002760553115759302</v>
+        <v>0.0002757886740736326</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.0002743187334305082</v>
+        <v>0.0002742183750678804</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.000275142879020951</v>
+        <v>0.0002752809798360952</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0002740634711806354</v>
+        <v>0.0002738622516245279</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0002725400316080747</v>
+        <v>0.0002725359571988456</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0002713961465012431</v>
+        <v>0.0002712700631832373</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.000272430406674902</v>
+        <v>0.0002727299461345428</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.0002710818890702766</v>
+        <v>0.000271075125328695</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.0002699058306363714</v>
+        <v>0.0002697208650540499</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0002688565950449666</v>
+        <v>0.0002688777044562236</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.0002680405779325652</v>
+        <v>0.0002678266469778953</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.0002673718102610276</v>
+        <v>0.0002678748874245799</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.0002687585481249638</v>
+        <v>0.0002681795528584597</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.0002665501270841512</v>
+        <v>0.0002669123824424387</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0002657982443902504</v>
+        <v>0.000265529640823685</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0002648965191012224</v>
+        <v>0.0002652780936442905</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.0002642680704579014</v>
+        <v>0.0002641236029072006</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.0002636424800200272</v>
+        <v>0.0002634171159561669</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.000262963140027086</v>
+        <v>0.0002629137496051069</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.0002621804055007324</v>
+        <v>0.0002622297250696656</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.000261223938198656</v>
+        <v>0.0002615483705853532</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.000261169563110993</v>
+        <v>0.0002608412366976011</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.0002602568879294137</v>
+        <v>0.0002602499222652269</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0002595453975260365</v>
+        <v>0.0002595668048515101</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.000258881254680598</v>
+        <v>0.0002588464053847657</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.000258242350782444</v>
+        <v>0.0002582332856212759</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0002574963690118533</v>
+        <v>0.0002575350305237018</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.0002565480321706924</v>
+        <v>0.0002564094192611054</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.0002556653165535408</v>
+        <v>0.0002555437522332176</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.0002546119862299235</v>
+        <v>0.0002547556399569729</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.0002551804004024666</v>
+        <v>0.000255290675708133</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.0002546357117531525</v>
+        <v>0.0002545652761601238</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.0002540818595805958</v>
+        <v>0.0002540602313550046</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.0002527147587949873</v>
+        <v>0.000252488324796559</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.0002506352302924681</v>
+        <v>0.0002504268363501847</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.000251948247159314</v>
+        <v>0.0002523152410126078</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.0002517567950425246</v>
+        <v>0.0002517078659771752</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.0002504795732377851</v>
+        <v>0.0002505273859061321</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.0002485513178299894</v>
+        <v>0.000247561447055941</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.0002490036529121973</v>
+        <v>0.0002500384942712191</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.0002489981508440004</v>
+        <v>0.0002489155566080956</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.0002476807138348763</v>
+        <v>0.0002475148584042887</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.0002459259008518548</v>
+        <v>0.0002461275111820764</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0002474187683909523</v>
+        <v>0.0002473585491149356</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.0002457115672540465</v>
+        <v>0.0002454643941695638</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.0002443669242849068</v>
+        <v>0.0002446180465540719</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.0002454169055589276</v>
+        <v>0.000245428426121845</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.0002424723359380033</v>
+        <v>0.0002419655636726534</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.0002442594360377603</v>
+        <v>0.0002448126086822907</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.0002431886818274621</v>
+        <v>0.0002426566612338777</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.0002411880048650473</v>
+        <v>0.0002415547801769436</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.0002424654933428404</v>
+        <v>0.0002420618405412559</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.0002394922370616757</v>
+        <v>0.0002396772510463508</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0002416093704665281</v>
+        <v>0.0002414273800173514</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.000237876021840976</v>
+        <v>0.0002383201457875882</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.0002406900527176212</v>
+        <v>0.0002402511109951791</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.0002369261353387986</v>
+        <v>0.0002370863249079308</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.0002393303934862541</v>
+        <v>0.0002391945856646936</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.000235974673804261</v>
+        <v>0.0002359515973193667</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.0002379076730712845</v>
+        <v>0.0002379244202419589</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.0002353324297722788</v>
+        <v>0.0002352045154457271</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.0002357556758601662</v>
+        <v>0.0002355844198847464</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.0002350010182081289</v>
+        <v>0.0002353119607835863</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.0002326638580696942</v>
+        <v>0.0002326344077899626</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.0002357985929613706</v>
+        <v>0.0002353699458602225</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.0002320706489673919</v>
+        <v>0.0002326806745540383</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0002331254282758223</v>
+        <v>0.0002317586903002335</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.0002323577303435331</v>
+        <v>0.000233388867462482</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.0002303754613413381</v>
+        <v>0.0002303684744088299</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.0002316421962717943</v>
+        <v>0.0002307081627999576</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.0002304568089466922</v>
+        <v>0.0002312510235266362</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.0002288322473509163</v>
+        <v>0.0002289982086328613</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.0002281271941507468</v>
+        <v>0.0002281585142623543</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.000230638454387949</v>
+        <v>0.0002300490704476417</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.0002276720783169546</v>
+        <v>0.0002278898018274699</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.0002264997381993508</v>
+        <v>0.0002267883487798198</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.000227238186442178</v>
+        <v>0.0002257978640867182</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.000227425298909177</v>
+        <v>0.0002282233526075442</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.0002255918809794168</v>
+        <v>0.0002256751575533118</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.0002245716967076821</v>
+        <v>0.0002248058090542793</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.0002238319997263886</v>
+        <v>0.0002240408874521263</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.0002254401930998135</v>
+        <v>0.0002240195328161713</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.0002241540596971865</v>
+        <v>0.0002248140204125405</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.0002228941198007123</v>
+        <v>0.0002232796303782078</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.0002222788351397837</v>
+        <v>0.0002223073013784297</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.0002216978245521984</v>
+        <v>0.0002217695678846973</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.0002210116452965916</v>
+        <v>0.0002208790693738351</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.000220325890988956</v>
+        <v>0.000220371758474752</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.0002215661135956674</v>
+        <v>0.0002197858261914427</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.0002205784652735563</v>
+        <v>0.0002213212670450767</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.0002193929259669718</v>
+        <v>0.0002199021675547764</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.0002188839041461462</v>
+        <v>0.0002189256532713863</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.0002182135083486421</v>
+        <v>0.0002183388597289189</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.000217892978597065</v>
+        <v>0.0002176728607254634</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.0002172262198953597</v>
+        <v>0.0002171072170289494</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.0002165320411341446</v>
+        <v>0.0002167285558328724</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0002162547627349381</v>
+        <v>0.0002162930111131378</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.000215822460991541</v>
+        <v>0.0002155692028603653</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.0002152582996359869</v>
+        <v>0.0002152938042008524</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.0002146668727109955</v>
+        <v>0.0002147797981583419</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.0002142559228615119</v>
+        <v>0.0002141365458831126</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.0002137448875419635</v>
+        <v>0.0002137733856024268</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.0002134843098427647</v>
+        <v>0.0002131539357394023</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.0002127377832298406</v>
+        <v>0.00021256107386189</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.0002121670810226824</v>
+        <v>0.0002122224338647493</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.0002115692803217407</v>
+        <v>0.000211492871000064</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.0002109712753264883</v>
+        <v>0.0002103660288073927</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.000209789258502351</v>
+        <v>0.0002096827097651846</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.0002097160318878174</v>
+        <v>0.0002107572947242502</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.0002102078170859295</v>
+        <v>0.0002102333277462457</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.0002097383329214552</v>
+        <v>0.0002096601149074013</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.0002092443644569634</v>
+        <v>0.0002089289036558007</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.0002085334818668378</v>
+        <v>0.0002084272550503032</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.0002077210098842463</v>
+        <v>0.0002076056789206746</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.0002065332213690021</v>
+        <v>0.0002050944079866499</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.0002059972540174552</v>
+        <v>0.0002076758645588899</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.0002069182767888455</v>
+        <v>0.000207305103223149</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.0002066526824579406</v>
+        <v>0.0002061983500879325</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.0002057524874903264</v>
+        <v>0.0002053277657934856</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.0002042721494692127</v>
+        <v>0.0002030397373422912</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.0002034740925836389</v>
+        <v>0.0002051681818524627</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.0002049159260746518</v>
+        <v>0.0002045691757336082</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.0002040167626865565</v>
+        <v>0.0002040793609253134</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.0002027631725745852</v>
+        <v>0.0002019596545583421</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.0002011682208977573</v>
+        <v>0.0002021722526511539</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0002033041437401632</v>
+        <v>0.0002029192809734639</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.0002021060338318067</v>
+        <v>0.0002020105113289082</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.0001999174029939027</v>
+        <v>0.0001991574386429604</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.0002011642276339034</v>
+        <v>0.0002020399339997382</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.0002011455606697024</v>
+        <v>0.0002009160797911674</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.0001993307916818685</v>
+        <v>0.0001981945509777876</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.0001986862916328543</v>
+        <v>0.0002000075822215861</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.000199941432633073</v>
+        <v>0.0001995822599428315</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.0001980422340473336</v>
+        <v>0.0001961536892788868</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.0001974793119677323</v>
+        <v>0.0001997318675146143</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.0001986233171417698</v>
+        <v>0.000197942793201003</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.0001948754706975415</v>
+        <v>0.0001953944721821311</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.0001983538271161574</v>
+        <v>0.0001980920311909353</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.0001967169639170765</v>
+        <v>0.0001962149414207948</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.0001944612619721062</v>
+        <v>0.0001950874751635682</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.0001967335185731165</v>
+        <v>0.0001962584676833876</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.0001926328752296505</v>
+        <v>0.0001929868745516653</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.000196322655028085</v>
+        <v>0.0001959529283017649</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.0001940680756494322</v>
+        <v>0.0001933978214802786</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.0001931447768785908</v>
+        <v>0.0001939292216039807</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.000193973609078917</v>
+        <v>0.0001933342388485717</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.0001915262558915895</v>
+        <v>0.0001920397757447739</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.0001935285434474668</v>
+        <v>0.0001931252907776466</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.0001904361373743822</v>
+        <v>0.0001906333740029247</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.0001929178597927928</v>
+        <v>0.0001926231842517647</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.0001895346699760794</v>
+        <v>0.0001897753530163331</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.0001920996484454619</v>
+        <v>0.0001917747190821835</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.00018881476207174</v>
+        <v>0.0001891642651985322</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.0001909839305381751</v>
+        <v>0.0001906831981290651</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.0001883053103628431</v>
+        <v>0.0001883669212779712</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.0001899685622605205</v>
+        <v>0.0001895073617311952</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.0001876719956441312</v>
+        <v>0.0001880186181630423</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.0001884943104283299</v>
+        <v>0.0001877879327825743</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.0001878032183611822</v>
+        <v>0.0001883145184752525</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.0001856458025556455</v>
+        <v>0.0001855347581542368</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.000188564750438686</v>
+        <v>0.0001887168556009189</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.0001850818041178508</v>
+        <v>0.0001853168329921236</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.0001875398096428893</v>
+        <v>0.0001867606110323705</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.0001849454484552374</v>
+        <v>0.0001855263260072337</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.0001847949083186486</v>
+        <v>0.0001835265267719914</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.000185756810606139</v>
+        <v>0.0001867665818642936</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.0001832855914567687</v>
+        <v>0.0001834398130681778</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.0001850469429908193</v>
+        <v>0.0001842326689115635</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.0001836341587612727</v>
+        <v>0.0001838726531371745</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.0001818926463889126</v>
+        <v>0.0001822823538202831</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.0001841668308556768</v>
+        <v>0.0001834613032601398</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.0001823677593649196</v>
+        <v>0.0001827352930194375</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.000180687692255549</v>
+        <v>0.0001807814604074745</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.0001829085898966912</v>
+        <v>0.0001824077132767383</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.0001813200011764437</v>
+        <v>0.0001816866213192986</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.0001797674334642776</v>
+        <v>0.0001798658345712215</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.0001810219227507057</v>
+        <v>0.0001794448066127441</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.0001805946735550362</v>
+        <v>0.0001816888361555243</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.0001790647871019619</v>
+        <v>0.0001794260156748457</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.0001780221230701303</v>
+        <v>0.0001778505082532073</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.0001807024890774455</v>
+        <v>0.0001800890096881227</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.0001786511777987093</v>
+        <v>0.000178989614938037</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.0001773958755127303</v>
+        <v>0.0001774349917396255</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.0001765902497997209</v>
+        <v>0.0001764979080398591</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.0001791629376159618</v>
+        <v>0.0001786289341650229</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.0001770651479978537</v>
+        <v>0.000177425330605697</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.0001760428314143384</v>
+        <v>0.0001762137947382921</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.0001753450017098409</v>
+        <v>0.0001754636402944141</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.0001764053368979863</v>
+        <v>0.0001747640872295395</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.0001766468883244106</v>
+        <v>0.0001775250374888509</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.0001749565939195524</v>
+        <v>0.000175097921199588</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.0001741754302389726</v>
+        <v>0.0001742401266683286</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.0001737438940948574</v>
+        <v>0.0001738063055052886</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.0001729972098496515</v>
+        <v>0.0001731873250388377</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.0001756696695890496</v>
+        <v>0.0001745970372712628</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.0001736484236862303</v>
+        <v>0.0001740325835959495</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.0001728638299070908</v>
+        <v>0.0001729010063508777</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.0001720884804502741</v>
+        <v>0.0001721740562825055</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.0001717104111181077</v>
+        <v>0.0001717396064463444</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.0001712234321735613</v>
+        <v>0.0001712029361335897</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.0001707670610812465</v>
+        <v>0.0001709580622564479</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.0001725280171496137</v>
+        <v>0.0001705554902433189</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.0001712560440143736</v>
+        <v>0.0001723700137050958</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.0001706323222460162</v>
+        <v>0.0001707184455419592</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.0001700147935150818</v>
+        <v>0.0001700957478077367</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.0001694993761950041</v>
+        <v>0.0001696622686669584</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.0001692769487657419</v>
+        <v>0.0001690679951368598</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.0001686639644500169</v>
+        <v>0.000168874110718948</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.0001683080756123273</v>
+        <v>0.0001682840077979396</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.0001682207670451022</v>
+        <v>0.0001680364653552536</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.000167631021140518</v>
+        <v>0.0001676582041351301</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.0001672772983207751</v>
+        <v>0.0001673284457012655</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.0001671631533925783</v>
+        <v>0.0001670031351736277</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.0001665436498970984</v>
+        <v>0.0001666474849298108</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.0001665107018472127</v>
+        <v>0.0001662446473139616</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.0001661304103932996</v>
+        <v>0.0001661002651947065</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.0001657241992677642</v>
+        <v>0.0001657481423952533</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.0001655819933679678</v>
+        <v>0.0001653946022199961</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.0001649620964994311</v>
+        <v>0.0001651433755965918</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.0001650081077501928</v>
+        <v>0.0001648714235451095</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.0001644648732077722</v>
+        <v>0.0001644095441949439</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.0001643264543647093</v>
+        <v>0.0001643714338391651</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.0001639670810396904</v>
+        <v>0.0001639116983222019</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.0001636132708722717</v>
+        <v>0.0001633962468794671</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.0001633122057261914</v>
+        <v>0.0001632509450859078</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.0001631958317597268</v>
+        <v>0.0001630556406095324</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.0001627054845641523</v>
+        <v>0.000162566965219248</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.0001622934546050079</v>
+        <v>0.0001622103399722366</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.000162151201836522</v>
+        <v>0.0001621962081837414</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.0001616626235620588</v>
+        <v>0.0001615484613903771</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.0001612212836668966</v>
+        <v>0.0001611047368880746</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.000161156039677287</v>
+        <v>0.000161018579406589</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.0001560835927750498</v>
+        <v>0.0001565866398940485</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.0001251949816000412</v>
+        <v>0.0001254565969449336</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.0001062159826026317</v>
+        <v>0.0001062673619574284</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>9.233095031775903e-05</v>
+        <v>9.265405685347982e-05</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>8.10097565824443e-05</v>
+        <v>8.094221649046486e-05</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>7.085013421292582e-05</v>
+        <v>7.115871836824045e-05</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>6.229062474050388e-05</v>
+        <v>6.217784692082802e-05</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>5.383859170794169e-05</v>
+        <v>5.418102738043712e-05</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>4.654855916351427e-05</v>
+        <v>4.662902322159168e-05</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>3.957023368380378e-05</v>
+        <v>3.955037339171582e-05</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>3.287539976954201e-05</v>
+        <v>3.29634452985826e-05</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>2.67000696045181e-05</v>
+        <v>2.679026189584146e-05</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>2.0828537461686e-05</v>
+        <v>2.08439335164282e-05</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1.684715653418194e-05</v>
+        <v>1.681206884855662e-05</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1.401796964523411e-05</v>
+        <v>1.414182809906615e-05</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1.153686993670347e-05</v>
+        <v>1.145207567691123e-05</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>8.930717550216327e-06</v>
+        <v>8.978519758655521e-06</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>6.539870515728998e-06</v>
+        <v>6.536371448301941e-06</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>4.207011611992904e-06</v>
+        <v>4.230835448567817e-06</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1.957582591277376e-06</v>
+        <v>1.98263331939172e-06</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1.564716016457855e-07</v>
+        <v>1.563868669508495e-07</v>
       </c>
     </row>
     <row r="462">
